--- a/base de datos SIS.xlsx
+++ b/base de datos SIS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATASIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-SIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A85C480E-F39A-4FA0-A324-5E857F513868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C2924A-6585-4C2B-9F25-97FEF17681EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
+    <workbookView xWindow="1035" yWindow="1470" windowWidth="8730" windowHeight="6810" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contexto " sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="123">
   <si>
     <t xml:space="preserve">Organismo </t>
   </si>
@@ -367,13 +367,49 @@
   </si>
   <si>
     <t>https://www.caf.com/media/30035/salvaguardas-ambientales-y-sociales.pdf</t>
+  </si>
+  <si>
+    <t>¿Qué son las Salvaguardas?</t>
+  </si>
+  <si>
+    <t>¿Qué es la Evaluación Estratégica Ambiental y Social?</t>
+  </si>
+  <si>
+    <t>¿Qué es el Marco de Gestión Ambiental y Social?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son aquellas condiciones internacionales y nacionales como, políticas, programas, leyes, reglamentos, medidas y acciones que buscan evitar, reducir, mitigar o compensar aquellos potenciales riesgos e impactos negativos que se podrían generar de la implementación de una actividad, así como la maximización de los beneficios con resguardo de los principios y derechos de las partes interesadas. </t>
+  </si>
+  <si>
+    <t>¿De dónde viene las salvaguardas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las salvaguardas, como información generalizada, nacen de la necesidad de los organismos financieros para evitar los riesgos que se podrían generar en la implementación de proyectos. Otro elemento importante que contribuyen al contexto, son las demanadas sociales ante los impactos negativos de proyectos de cooperación internacional. En este sentido, uno de los criterios importantes en la formulación e implementación de proyectos de cooperación internacional.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es un proceso analítico que tiene por objetivo identificar, describir, evaluar y priorizar los posibles riesgos e impactos (negativos y positivos) derivados de la implementación de iniciativas de cooperación internacional </t>
+  </si>
+  <si>
+    <t>Es el resultado de la SESA/EESA que proporciona un marco de gestión para el manejo de las medidas de mitigación a los riesgos e impactos adversos, y la promoción de los beneficios o impactos positivos que se podrían generar de las iniciativas de cooperación internacional</t>
+  </si>
+  <si>
+    <t>Son el marco jurídico e institucional como, políticas, programas, leyes, reglamentos, medidas y acciones que buscan evitar, reducir, mitigar o compensar aquellos potenciales riesgos e impactos negativos que se podrían generar de la implementación de iniciativas nacionales y locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvaguardas nacionales </t>
+  </si>
+  <si>
+    <t>¿por qué un Sistema de Información de Salvaguardas? (SIS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque sistematiza los diversos instrumentos ambientales y sociales, así como facilita el seguimiento y monitoreo de las salvaguardas de las diversas iniciativas de cooperación internacional.  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,16 +431,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -412,14 +462,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -735,14 +815,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D80F70B-5660-42CC-BAE5-7EC7AFB4AF20}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/base de datos SIS.xlsx
+++ b/base de datos SIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-SIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C2924A-6585-4C2B-9F25-97FEF17681EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBE8856-D73A-4E68-8B99-233DCF42F8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1470" windowWidth="8730" windowHeight="6810" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contexto " sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="136">
   <si>
     <t xml:space="preserve">Organismo </t>
   </si>
@@ -403,6 +403,45 @@
   </si>
   <si>
     <t xml:space="preserve">Porque sistematiza los diversos instrumentos ambientales y sociales, así como facilita el seguimiento y monitoreo de las salvaguardas de las diversas iniciativas de cooperación internacional.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos/categorias </t>
+  </si>
+  <si>
+    <t>Normativo</t>
+  </si>
+  <si>
+    <t>Gobernanza</t>
+  </si>
+  <si>
+    <t>Participación</t>
+  </si>
+  <si>
+    <t>Biodiversidad</t>
+  </si>
+  <si>
+    <t>Emisiones</t>
+  </si>
+  <si>
+    <t>Evaluación de riesgo</t>
+  </si>
+  <si>
+    <t>Trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contaminación </t>
+  </si>
+  <si>
+    <t>Reasentamiento Involuntario</t>
+  </si>
+  <si>
+    <t>Patrimonio Cultural</t>
+  </si>
+  <si>
+    <t>Financiero</t>
+  </si>
+  <si>
+    <t>Salud</t>
   </si>
 </sst>
 </file>
@@ -482,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -498,6 +537,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -817,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D80F70B-5660-42CC-BAE5-7EC7AFB4AF20}">
   <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +910,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -877,25 +919,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3490360-E7D4-453F-809F-BDE17EBE6214}">
-  <dimension ref="C3:G53"/>
+  <dimension ref="C3:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="6" max="7" width="39.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -909,10 +952,13 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -925,11 +971,14 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -942,11 +991,14 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -959,11 +1011,14 @@
       <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -976,11 +1031,14 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -993,11 +1051,14 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -1010,11 +1071,14 @@
       <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -1027,11 +1091,14 @@
       <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>18</v>
       </c>
@@ -1044,11 +1111,14 @@
       <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -1061,11 +1131,14 @@
       <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -1078,11 +1151,14 @@
       <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -1095,11 +1171,14 @@
       <c r="F14" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -1112,11 +1191,14 @@
       <c r="F15" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1129,11 +1211,14 @@
       <c r="F16" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>18</v>
       </c>
@@ -1146,11 +1231,14 @@
       <c r="F17" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -1163,11 +1251,14 @@
       <c r="F18" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -1180,11 +1271,14 @@
       <c r="F19" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -1197,11 +1291,14 @@
       <c r="F20" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>38</v>
       </c>
@@ -1214,11 +1311,14 @@
       <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>38</v>
       </c>
@@ -1231,11 +1331,14 @@
       <c r="F22" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>38</v>
       </c>
@@ -1248,11 +1351,14 @@
       <c r="F23" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>38</v>
       </c>
@@ -1265,11 +1371,14 @@
       <c r="F24" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>38</v>
       </c>
@@ -1282,11 +1391,14 @@
       <c r="F25" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>38</v>
       </c>
@@ -1299,11 +1411,14 @@
       <c r="F26" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -1316,11 +1431,11 @@
       <c r="F27" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>38</v>
       </c>
@@ -1333,11 +1448,11 @@
       <c r="F28" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>38</v>
       </c>
@@ -1350,11 +1465,11 @@
       <c r="F29" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>38</v>
       </c>
@@ -1367,11 +1482,11 @@
       <c r="F30" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>67</v>
       </c>
@@ -1384,11 +1499,11 @@
       <c r="F31" t="s">
         <v>68</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>67</v>
       </c>
@@ -1401,11 +1516,11 @@
       <c r="F32" t="s">
         <v>69</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>67</v>
       </c>
@@ -1418,11 +1533,11 @@
       <c r="F33" t="s">
         <v>70</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>67</v>
       </c>
@@ -1435,11 +1550,11 @@
       <c r="F34" t="s">
         <v>71</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>67</v>
       </c>
@@ -1452,11 +1567,11 @@
       <c r="F35" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>75</v>
       </c>
@@ -1469,11 +1584,11 @@
       <c r="F36" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>75</v>
       </c>
@@ -1486,11 +1601,11 @@
       <c r="F37" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -1503,11 +1618,11 @@
       <c r="F38" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>75</v>
       </c>
@@ -1520,11 +1635,11 @@
       <c r="F39" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>75</v>
       </c>
@@ -1537,11 +1652,11 @@
       <c r="F40" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>75</v>
       </c>
@@ -1554,11 +1669,11 @@
       <c r="F41" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>75</v>
       </c>
@@ -1571,11 +1686,11 @@
       <c r="F42" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>75</v>
       </c>
@@ -1588,11 +1703,11 @@
       <c r="F43" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>75</v>
       </c>
@@ -1605,11 +1720,11 @@
       <c r="F44" t="s">
         <v>86</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>92</v>
       </c>
@@ -1622,11 +1737,11 @@
       <c r="F45" t="s">
         <v>94</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>92</v>
       </c>
@@ -1639,11 +1754,11 @@
       <c r="F46" t="s">
         <v>96</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>92</v>
       </c>
@@ -1656,11 +1771,11 @@
       <c r="F47" t="s">
         <v>97</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>92</v>
       </c>
@@ -1673,11 +1788,11 @@
       <c r="F48" t="s">
         <v>98</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>92</v>
       </c>
@@ -1690,11 +1805,11 @@
       <c r="F49" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>92</v>
       </c>
@@ -1707,11 +1822,11 @@
       <c r="F50" t="s">
         <v>99</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>92</v>
       </c>
@@ -1724,11 +1839,11 @@
       <c r="F51" t="s">
         <v>100</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>92</v>
       </c>
@@ -1741,11 +1856,11 @@
       <c r="F52" t="s">
         <v>101</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>92</v>
       </c>
@@ -1758,32 +1873,32 @@
       <c r="F53" t="s">
         <v>102</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G21" r:id="rId1" xr:uid="{E3F6227F-BA08-4993-A540-F0966729BABA}"/>
-    <hyperlink ref="G22" r:id="rId2" xr:uid="{D09B3563-CC16-4A95-93F2-5124FCEDC3BA}"/>
-    <hyperlink ref="G23" r:id="rId3" xr:uid="{E1BB0D9E-56BE-4DBC-8FE8-5B90E001A9DC}"/>
-    <hyperlink ref="G24" r:id="rId4" xr:uid="{1555A391-924B-4B0A-A94A-522CA87673CE}"/>
-    <hyperlink ref="G25" r:id="rId5" xr:uid="{40F13DF4-1C93-45D3-8F5C-D1974FC46F47}"/>
-    <hyperlink ref="G26" r:id="rId6" xr:uid="{32EDDF57-E372-4B0F-81D0-F8B2A855BEB7}"/>
-    <hyperlink ref="G27" r:id="rId7" xr:uid="{00D740B3-63F4-44D4-8EB3-59EBA79E0AB3}"/>
-    <hyperlink ref="G28" r:id="rId8" xr:uid="{D661597F-ECAC-4799-97FB-9E5E779391ED}"/>
-    <hyperlink ref="G29" r:id="rId9" xr:uid="{C8357A27-4FF7-4525-8C27-300AE37A918B}"/>
-    <hyperlink ref="G30" r:id="rId10" xr:uid="{DE376315-2A29-4E38-93E9-2726263CE29A}"/>
-    <hyperlink ref="G4" r:id="rId11" location="page=12" display="https://unfccc.int/resource/docs/2010/cop16/eng/07a01.pdf - page=12" xr:uid="{31596F7C-DECF-4668-B6F0-E72B52D24FD4}"/>
-    <hyperlink ref="G5:G10" r:id="rId12" location="page=12" display="https://unfccc.int/resource/docs/2010/cop16/eng/07a01.pdf - page=12" xr:uid="{0DA4FBE0-A923-47F0-B1D0-F54C7225EB06}"/>
-    <hyperlink ref="G11" r:id="rId13" xr:uid="{A8DF2DC2-72FA-4B51-AC32-BE0E7DB5559E}"/>
-    <hyperlink ref="G12:G20" r:id="rId14" display="http://pubdocs.worldbank.org/en/345101522946582343/Environmental-Social-Framework-Spanish.pdf" xr:uid="{3D41AF97-4FC9-4C73-99D4-85C5E5D013C2}"/>
-    <hyperlink ref="G35" r:id="rId15" location="gcf039s-response" display="https://www.greenclimate.fund/projects/gender - gcf039s-response" xr:uid="{E37677BC-480E-4A33-9923-E922E57CF0D2}"/>
-    <hyperlink ref="G36" r:id="rId16" xr:uid="{19A68E4D-066A-4009-B54E-2D668D70443C}"/>
-    <hyperlink ref="G37:G44" r:id="rId17" display="https://www.thegef.org/sites/default/files/documents/gef_environmental_social_safeguards_policy.pdf" xr:uid="{B3B28840-2219-498F-967B-0F1D2C9CE19F}"/>
-    <hyperlink ref="G45" r:id="rId18" xr:uid="{9D4AE93E-EA64-4C2A-8CE8-1E5DBC196C82}"/>
-    <hyperlink ref="G46:G53" r:id="rId19" display="https://www.caf.com/media/30035/salvaguardas-ambientales-y-sociales.pdf" xr:uid="{739F95C3-D57B-4AFF-ACF9-DBACAADCD71D}"/>
+    <hyperlink ref="H21" r:id="rId1" xr:uid="{E3F6227F-BA08-4993-A540-F0966729BABA}"/>
+    <hyperlink ref="H22" r:id="rId2" xr:uid="{D09B3563-CC16-4A95-93F2-5124FCEDC3BA}"/>
+    <hyperlink ref="H23" r:id="rId3" xr:uid="{E1BB0D9E-56BE-4DBC-8FE8-5B90E001A9DC}"/>
+    <hyperlink ref="H24" r:id="rId4" xr:uid="{1555A391-924B-4B0A-A94A-522CA87673CE}"/>
+    <hyperlink ref="H25" r:id="rId5" xr:uid="{40F13DF4-1C93-45D3-8F5C-D1974FC46F47}"/>
+    <hyperlink ref="H26" r:id="rId6" xr:uid="{32EDDF57-E372-4B0F-81D0-F8B2A855BEB7}"/>
+    <hyperlink ref="H27" r:id="rId7" xr:uid="{00D740B3-63F4-44D4-8EB3-59EBA79E0AB3}"/>
+    <hyperlink ref="H28" r:id="rId8" xr:uid="{D661597F-ECAC-4799-97FB-9E5E779391ED}"/>
+    <hyperlink ref="H29" r:id="rId9" xr:uid="{C8357A27-4FF7-4525-8C27-300AE37A918B}"/>
+    <hyperlink ref="H30" r:id="rId10" xr:uid="{DE376315-2A29-4E38-93E9-2726263CE29A}"/>
+    <hyperlink ref="H4" r:id="rId11" location="page=12" display="https://unfccc.int/resource/docs/2010/cop16/eng/07a01.pdf - page=12" xr:uid="{31596F7C-DECF-4668-B6F0-E72B52D24FD4}"/>
+    <hyperlink ref="H5:H10" r:id="rId12" location="page=12" display="https://unfccc.int/resource/docs/2010/cop16/eng/07a01.pdf - page=12" xr:uid="{0DA4FBE0-A923-47F0-B1D0-F54C7225EB06}"/>
+    <hyperlink ref="H11" r:id="rId13" xr:uid="{A8DF2DC2-72FA-4B51-AC32-BE0E7DB5559E}"/>
+    <hyperlink ref="H12:H20" r:id="rId14" display="http://pubdocs.worldbank.org/en/345101522946582343/Environmental-Social-Framework-Spanish.pdf" xr:uid="{3D41AF97-4FC9-4C73-99D4-85C5E5D013C2}"/>
+    <hyperlink ref="H35" r:id="rId15" location="gcf039s-response" display="https://www.greenclimate.fund/projects/gender - gcf039s-response" xr:uid="{E37677BC-480E-4A33-9923-E922E57CF0D2}"/>
+    <hyperlink ref="H36" r:id="rId16" xr:uid="{19A68E4D-066A-4009-B54E-2D668D70443C}"/>
+    <hyperlink ref="H37:H44" r:id="rId17" display="https://www.thegef.org/sites/default/files/documents/gef_environmental_social_safeguards_policy.pdf" xr:uid="{B3B28840-2219-498F-967B-0F1D2C9CE19F}"/>
+    <hyperlink ref="H45" r:id="rId18" xr:uid="{9D4AE93E-EA64-4C2A-8CE8-1E5DBC196C82}"/>
+    <hyperlink ref="H46:H53" r:id="rId19" display="https://www.caf.com/media/30035/salvaguardas-ambientales-y-sociales.pdf" xr:uid="{739F95C3-D57B-4AFF-ACF9-DBACAADCD71D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId20"/>

--- a/base de datos SIS.xlsx
+++ b/base de datos SIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-SIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-SIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F396E-DCEC-47FC-8051-03BE0E01F1E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6672A89-D93E-4719-83A6-81895CCF508E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contexto " sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="143">
   <si>
     <t xml:space="preserve">Organismo </t>
   </si>
@@ -451,6 +451,18 @@
   </si>
   <si>
     <t>Nombre Oficial</t>
+  </si>
+  <si>
+    <t>Género</t>
+  </si>
+  <si>
+    <t>Quejas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrimonio </t>
+  </si>
+  <si>
+    <t>Uso Recursos Naturales</t>
   </si>
 </sst>
 </file>
@@ -888,13 +900,13 @@
       <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
@@ -902,7 +914,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>115</v>
       </c>
@@ -910,7 +922,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>112</v>
       </c>
@@ -918,7 +930,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>113</v>
       </c>
@@ -926,7 +938,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>120</v>
       </c>
@@ -934,7 +946,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>121</v>
       </c>
@@ -953,20 +965,20 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="6" width="39.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +1001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1009,7 +1021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1029,7 +1041,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1049,7 +1061,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1069,7 +1081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1089,7 +1101,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1121,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1129,7 +1141,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -1152,7 +1164,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -1175,7 +1187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -1198,7 +1210,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1221,7 +1233,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1267,7 +1279,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -1290,7 +1302,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -1313,7 +1325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -1336,7 +1348,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -1359,7 +1371,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1382,7 +1394,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1405,7 +1417,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1428,7 +1440,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1451,7 +1463,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1474,7 +1486,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1497,7 +1509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1513,11 +1525,14 @@
       <c r="E25" t="s">
         <v>49</v>
       </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1533,11 +1548,14 @@
       <c r="E26" t="s">
         <v>34</v>
       </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1553,11 +1571,14 @@
       <c r="E27" t="s">
         <v>50</v>
       </c>
+      <c r="F27" t="s">
+        <v>139</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1573,11 +1594,14 @@
       <c r="E28" t="s">
         <v>37</v>
       </c>
+      <c r="F28" t="s">
+        <v>126</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1590,11 +1614,14 @@
       <c r="E29" t="s">
         <v>68</v>
       </c>
+      <c r="F29" t="s">
+        <v>129</v>
+      </c>
       <c r="G29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -1607,11 +1634,14 @@
       <c r="E30" t="s">
         <v>69</v>
       </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
       <c r="G30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1624,11 +1654,14 @@
       <c r="E31" t="s">
         <v>70</v>
       </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
       <c r="G31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1641,11 +1674,14 @@
       <c r="E32" t="s">
         <v>71</v>
       </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
       <c r="G32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -1658,11 +1694,14 @@
       <c r="E33" t="s">
         <v>73</v>
       </c>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -1675,11 +1714,14 @@
       <c r="E34" t="s">
         <v>78</v>
       </c>
+      <c r="F34" t="s">
+        <v>129</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -1692,11 +1734,14 @@
       <c r="E35" t="s">
         <v>83</v>
       </c>
+      <c r="F35" t="s">
+        <v>140</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -1709,11 +1754,14 @@
       <c r="E36" t="s">
         <v>30</v>
       </c>
+      <c r="F36" t="s">
+        <v>127</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1726,11 +1774,14 @@
       <c r="E37" t="s">
         <v>84</v>
       </c>
+      <c r="F37" t="s">
+        <v>132</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -1743,11 +1794,14 @@
       <c r="E38" t="s">
         <v>49</v>
       </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -1760,11 +1814,14 @@
       <c r="E39" t="s">
         <v>34</v>
       </c>
+      <c r="F39" t="s">
+        <v>133</v>
+      </c>
       <c r="G39" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -1777,11 +1834,14 @@
       <c r="E40" t="s">
         <v>85</v>
       </c>
+      <c r="F40" t="s">
+        <v>131</v>
+      </c>
       <c r="G40" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -1794,11 +1854,14 @@
       <c r="E41" t="s">
         <v>22</v>
       </c>
+      <c r="F41" t="s">
+        <v>130</v>
+      </c>
       <c r="G41" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -1811,11 +1874,14 @@
       <c r="E42" t="s">
         <v>86</v>
       </c>
+      <c r="F42" t="s">
+        <v>135</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -1828,11 +1894,14 @@
       <c r="E43" t="s">
         <v>94</v>
       </c>
+      <c r="F43" t="s">
+        <v>129</v>
+      </c>
       <c r="G43" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -1845,11 +1914,14 @@
       <c r="E44" t="s">
         <v>96</v>
       </c>
+      <c r="F44" t="s">
+        <v>142</v>
+      </c>
       <c r="G44" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -1862,11 +1934,14 @@
       <c r="E45" t="s">
         <v>97</v>
       </c>
+      <c r="F45" t="s">
+        <v>127</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1879,11 +1954,14 @@
       <c r="E46" t="s">
         <v>98</v>
       </c>
+      <c r="F46" t="s">
+        <v>131</v>
+      </c>
       <c r="G46" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -1896,11 +1974,14 @@
       <c r="E47" t="s">
         <v>34</v>
       </c>
+      <c r="F47" t="s">
+        <v>141</v>
+      </c>
       <c r="G47" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -1913,11 +1994,14 @@
       <c r="E48" t="s">
         <v>99</v>
       </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
       <c r="G48" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -1930,11 +2014,14 @@
       <c r="E49" t="s">
         <v>100</v>
       </c>
+      <c r="F49" t="s">
+        <v>132</v>
+      </c>
       <c r="G49" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -1947,11 +2034,14 @@
       <c r="E50" t="s">
         <v>101</v>
       </c>
+      <c r="F50" t="s">
+        <v>130</v>
+      </c>
       <c r="G50" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -1963,6 +2053,9 @@
       </c>
       <c r="E51" t="s">
         <v>102</v>
+      </c>
+      <c r="F51" t="s">
+        <v>139</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>110</v>

--- a/base de datos SIS.xlsx
+++ b/base de datos SIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-SIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6672A89-D93E-4719-83A6-81895CCF508E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71316048-367B-4212-BA1E-F320407171FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contexto " sheetId="1" r:id="rId1"/>
@@ -500,18 +500,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -542,25 +536,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -896,61 +884,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D80F70B-5660-42CC-BAE5-7EC7AFB4AF20}">
   <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -964,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3490360-E7D4-453F-809F-BDE17EBE6214}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>

--- a/base de datos SIS.xlsx
+++ b/base de datos SIS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-SIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-SIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71316048-367B-4212-BA1E-F320407171FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3B0A3C-A4B3-42EE-85B3-33F2A678C9CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
+    <workbookView xWindow="2088" yWindow="1368" windowWidth="19392" windowHeight="10992" activeTab="1" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contexto " sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="147">
   <si>
     <t xml:space="preserve">Organismo </t>
   </si>
@@ -463,6 +463,18 @@
   </si>
   <si>
     <t>Uso Recursos Naturales</t>
+  </si>
+  <si>
+    <t>Fondo Verde par el Clima</t>
+  </si>
+  <si>
+    <t>Fondo para el Medio Ambiente Mundial</t>
+  </si>
+  <si>
+    <t>Banco de Desarrollo para América Latina</t>
+  </si>
+  <si>
+    <t>Convención Marco de Naciones Unidas contra el Cambio Climático</t>
   </si>
 </sst>
 </file>
@@ -884,17 +896,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D80F70B-5660-42CC-BAE5-7EC7AFB4AF20}">
   <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>111</v>
       </c>
@@ -902,7 +914,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>115</v>
       </c>
@@ -910,7 +922,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>112</v>
       </c>
@@ -918,7 +930,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>113</v>
       </c>
@@ -926,7 +938,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>120</v>
       </c>
@@ -934,7 +946,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>121</v>
       </c>
@@ -952,21 +964,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3490360-E7D4-453F-809F-BDE17EBE6214}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -989,10 +1001,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -1009,10 +1024,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1029,10 +1047,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -1049,10 +1070,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -1069,10 +1093,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -1089,10 +1116,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -1109,10 +1139,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -1129,7 +1162,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -1152,7 +1185,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -1175,7 +1208,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -1198,7 +1231,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1221,7 +1254,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -1244,7 +1277,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1267,7 +1300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -1290,7 +1323,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -1313,7 +1346,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -1336,7 +1369,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -1359,7 +1392,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1382,7 +1415,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1405,7 +1438,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1428,7 +1461,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1451,7 +1484,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1474,7 +1507,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1497,7 +1530,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1520,7 +1553,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1543,7 +1576,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1566,7 +1599,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1589,10 +1622,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>67</v>
       </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
       <c r="C29" t="s">
         <v>72</v>
       </c>
@@ -1609,10 +1645,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>67</v>
       </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
       <c r="C30" t="s">
         <v>72</v>
       </c>
@@ -1629,10 +1668,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>67</v>
       </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
       <c r="C31" t="s">
         <v>72</v>
       </c>
@@ -1649,10 +1691,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
       <c r="C32" t="s">
         <v>72</v>
       </c>
@@ -1669,10 +1714,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>67</v>
       </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
       <c r="C33" t="s">
         <v>72</v>
       </c>
@@ -1689,10 +1737,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>75</v>
       </c>
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
       <c r="C34" t="s">
         <v>76</v>
       </c>
@@ -1709,10 +1760,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
       <c r="C35" t="s">
         <v>79</v>
       </c>
@@ -1729,10 +1783,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>75</v>
       </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
       <c r="C36" t="s">
         <v>80</v>
       </c>
@@ -1749,10 +1806,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>75</v>
       </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
       <c r="C37" t="s">
         <v>81</v>
       </c>
@@ -1769,10 +1829,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
       <c r="C38" t="s">
         <v>82</v>
       </c>
@@ -1789,10 +1852,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>75</v>
       </c>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
       <c r="C39" t="s">
         <v>87</v>
       </c>
@@ -1809,10 +1875,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>75</v>
       </c>
+      <c r="B40" t="s">
+        <v>144</v>
+      </c>
       <c r="C40" t="s">
         <v>88</v>
       </c>
@@ -1829,10 +1898,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>75</v>
       </c>
+      <c r="B41" t="s">
+        <v>144</v>
+      </c>
       <c r="C41" t="s">
         <v>89</v>
       </c>
@@ -1849,10 +1921,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>75</v>
       </c>
+      <c r="B42" t="s">
+        <v>144</v>
+      </c>
       <c r="C42" t="s">
         <v>90</v>
       </c>
@@ -1869,10 +1944,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>92</v>
       </c>
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
       <c r="C43" t="s">
         <v>93</v>
       </c>
@@ -1889,10 +1967,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>92</v>
       </c>
+      <c r="B44" t="s">
+        <v>145</v>
+      </c>
       <c r="C44" t="s">
         <v>95</v>
       </c>
@@ -1909,10 +1990,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>92</v>
       </c>
+      <c r="B45" t="s">
+        <v>145</v>
+      </c>
       <c r="C45" t="s">
         <v>103</v>
       </c>
@@ -1929,10 +2013,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
       <c r="C46" t="s">
         <v>104</v>
       </c>
@@ -1949,10 +2036,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
       <c r="C47" t="s">
         <v>105</v>
       </c>
@@ -1969,10 +2059,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
       <c r="C48" t="s">
         <v>106</v>
       </c>
@@ -1989,10 +2082,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>92</v>
       </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
       <c r="C49" t="s">
         <v>107</v>
       </c>
@@ -2009,10 +2105,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>92</v>
       </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
       <c r="C50" t="s">
         <v>108</v>
       </c>
@@ -2029,9 +2128,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>92</v>
+      </c>
+      <c r="B51" t="s">
+        <v>145</v>
       </c>
       <c r="C51" t="s">
         <v>109</v>

--- a/base de datos SIS.xlsx
+++ b/base de datos SIS.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-SIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-SIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3B0A3C-A4B3-42EE-85B3-33F2A678C9CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA6E974-8FBB-443D-B79D-3BA630A60120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="1368" windowWidth="19392" windowHeight="10992" activeTab="1" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contexto " sheetId="1" r:id="rId1"/>
     <sheet name="Salvaguardas " sheetId="2" r:id="rId2"/>
+    <sheet name="checklist" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="157">
   <si>
     <t xml:space="preserve">Organismo </t>
   </si>
@@ -475,6 +476,36 @@
   </si>
   <si>
     <t>Convención Marco de Naciones Unidas contra el Cambio Climático</t>
+  </si>
+  <si>
+    <t>Pregunta Guía</t>
+  </si>
+  <si>
+    <t>¿La iniciativa se alinea con las políticas, programas y proyectos?</t>
+  </si>
+  <si>
+    <t>Nombre oficial</t>
+  </si>
+  <si>
+    <t>Salvaguardas</t>
+  </si>
+  <si>
+    <t>Nombre de SSA</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>¿La iniciativa cuenta una evaluación de riesgo previa?</t>
+  </si>
+  <si>
+    <t>¿La inciativa conserva la biodiversidad?</t>
+  </si>
+  <si>
+    <t>¿la iniciativa previena la contaminación?</t>
+  </si>
+  <si>
+    <t>¿La inicitiva identificó los riesgos de reversión y desplazamiento de la deforestación?</t>
   </si>
 </sst>
 </file>
@@ -512,15 +543,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -543,12 +580,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -562,6 +653,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -900,13 +1015,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>111</v>
       </c>
@@ -914,7 +1029,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>115</v>
       </c>
@@ -922,7 +1037,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>112</v>
       </c>
@@ -930,7 +1045,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>113</v>
       </c>
@@ -938,7 +1053,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>120</v>
       </c>
@@ -946,7 +1061,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>121</v>
       </c>
@@ -964,21 +1079,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3490360-E7D4-453F-809F-BDE17EBE6214}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="6" width="39.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1116,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1024,7 +1139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1047,7 +1162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1185,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1093,7 +1208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1254,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1162,7 +1277,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -1185,7 +1300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -1208,7 +1323,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -1231,7 +1346,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1254,7 +1369,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -1277,7 +1392,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1300,7 +1415,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -1323,7 +1438,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -1346,7 +1461,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -1369,7 +1484,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -1392,7 +1507,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1415,7 +1530,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1438,7 +1553,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1461,7 +1576,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1484,7 +1599,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1507,7 +1622,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1530,7 +1645,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1553,7 +1668,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1576,7 +1691,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1599,7 +1714,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1622,7 +1737,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1645,7 +1760,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -1668,7 +1783,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1691,7 +1806,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1714,7 +1829,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -1737,7 +1852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -1760,7 +1875,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -1783,7 +1898,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -1806,7 +1921,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1829,7 +1944,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -1852,7 +1967,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -1875,7 +1990,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -1898,7 +2013,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -1921,7 +2036,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -1944,7 +2059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -1967,7 +2082,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -1990,7 +2105,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -2013,7 +2128,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -2036,7 +2151,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -2059,7 +2174,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -2082,7 +2197,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -2105,7 +2220,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -2128,7 +2243,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -2180,4 +2295,466 @@
     <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C09263-7AD8-4021-A12C-A81048351FF7}">
+  <dimension ref="D1:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="4:10" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="D3" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="D5" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="D20" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/base de datos SIS.xlsx
+++ b/base de datos SIS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-SIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-SIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA6E974-8FBB-443D-B79D-3BA630A60120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E17339-0BE8-49D7-B573-2A151D7D5BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
+    <workbookView xWindow="2436" yWindow="1368" windowWidth="19392" windowHeight="10992" activeTab="1" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contexto " sheetId="1" r:id="rId1"/>
@@ -1015,13 +1015,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>111</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>115</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>112</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>113</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>120</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>121</v>
       </c>
@@ -1079,21 +1079,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3490360-E7D4-453F-809F-BDE17EBE6214}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -2301,23 +2301,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C09263-7AD8-4021-A12C-A81048351FF7}">
   <dimension ref="D1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="45.33203125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D2" s="11" t="s">
         <v>147</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="4:10" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:10" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D3" s="7" t="s">
         <v>148</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D4" s="6" t="s">
         <v>153</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="4:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
         <v>153</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
         <v>153</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
         <v>153</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
         <v>153</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
         <v>153</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
         <v>154</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
         <v>154</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
         <v>154</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
         <v>154</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
         <v>154</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
         <v>155</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D16" s="6" t="s">
         <v>155</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D17" s="6" t="s">
         <v>155</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D18" s="6" t="s">
         <v>155</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="4:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D19" s="6" t="s">
         <v>156</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="4:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D20" s="6" t="s">
         <v>156</v>
       </c>

--- a/base de datos SIS.xlsx
+++ b/base de datos SIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-SIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E17339-0BE8-49D7-B573-2A151D7D5BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD495FA-25A3-45D6-8F10-F49A93791E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2436" yWindow="1368" windowWidth="19392" windowHeight="10992" activeTab="1" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="159">
   <si>
     <t xml:space="preserve">Organismo </t>
   </si>
@@ -208,9 +208,6 @@
     <t>http://idbdocs.iadb.org/wsdocs/getdocument.aspx?docnum=EZSHARE-2131049523-8</t>
   </si>
   <si>
-    <t>https://unfccc.int/resource/docs/2010/cop16/eng/07a01.pdf#page=12</t>
-  </si>
-  <si>
     <t>https://unfccc.int/resource/docs/2010/cop16/eng/07a01.pdf#page=13</t>
   </si>
   <si>
@@ -506,6 +503,15 @@
   </si>
   <si>
     <t>¿La inicitiva identificó los riesgos de reversión y desplazamiento de la deforestación?</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-SIS/master/Doc%C2%B4s/07a01.pdf</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-SIS/master/Doc%C2%B4s/EZSHARE-2131049523-8.pdf</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-SIS/master/Doc%C2%B4s/EnvironmentalSocialFrameworkSpanish.pdf</t>
   </si>
 </sst>
 </file>
@@ -1023,50 +1029,50 @@
   <sheetData>
     <row r="3" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1079,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3490360-E7D4-453F-809F-BDE17EBE6214}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1098,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1110,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
         <v>55</v>
@@ -1121,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1133,10 +1139,10 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1144,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1156,10 +1162,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1167,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1182,7 +1188,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1190,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1202,10 +1208,10 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1213,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1225,10 +1231,10 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1236,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1248,10 +1254,10 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1259,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1271,15 +1277,15 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1294,15 +1300,15 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -1317,15 +1323,15 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -1340,15 +1346,15 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1363,15 +1369,15 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1386,15 +1392,15 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -1409,15 +1415,15 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1435,12 +1441,12 @@
         <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1455,15 +1461,15 @@
         <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1475,18 +1481,18 @@
         <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1501,10 +1507,10 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1512,7 +1518,7 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -1524,10 +1530,10 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1535,7 +1541,7 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -1547,7 +1553,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>56</v>
@@ -1558,7 +1564,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
@@ -1570,7 +1576,7 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>56</v>
@@ -1581,7 +1587,7 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -1593,7 +1599,7 @@
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>56</v>
@@ -1604,7 +1610,7 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -1616,7 +1622,7 @@
         <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>56</v>
@@ -1627,7 +1633,7 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -1639,7 +1645,7 @@
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>56</v>
@@ -1650,7 +1656,7 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
         <v>45</v>
@@ -1673,7 +1679,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
         <v>46</v>
@@ -1685,7 +1691,7 @@
         <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>56</v>
@@ -1696,7 +1702,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
@@ -1708,7 +1714,7 @@
         <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>56</v>
@@ -1719,7 +1725,7 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
         <v>48</v>
@@ -1731,7 +1737,7 @@
         <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>56</v>
@@ -1739,223 +1745,223 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
         <v>67</v>
       </c>
-      <c r="B29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" t="s">
-        <v>68</v>
-      </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
         <v>72</v>
       </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F33" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="s">
         <v>75</v>
       </c>
-      <c r="B34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>76</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>77</v>
       </c>
-      <c r="E34" t="s">
-        <v>78</v>
-      </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E38" t="s">
         <v>49</v>
@@ -1964,202 +1970,202 @@
         <v>49</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
         <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" t="s">
         <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F42" t="s">
-        <v>135</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" t="s">
         <v>92</v>
       </c>
-      <c r="B43" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
         <v>93</v>
       </c>
-      <c r="D43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" t="s">
-        <v>94</v>
-      </c>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" t="s">
         <v>95</v>
       </c>
-      <c r="D44" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" t="s">
-        <v>96</v>
-      </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
@@ -2168,131 +2174,128 @@
         <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" t="s">
-        <v>139</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G19" r:id="rId1" xr:uid="{E3F6227F-BA08-4993-A540-F0966729BABA}"/>
-    <hyperlink ref="G20" r:id="rId2" xr:uid="{D09B3563-CC16-4A95-93F2-5124FCEDC3BA}"/>
-    <hyperlink ref="G21" r:id="rId3" xr:uid="{E1BB0D9E-56BE-4DBC-8FE8-5B90E001A9DC}"/>
-    <hyperlink ref="G22" r:id="rId4" xr:uid="{1555A391-924B-4B0A-A94A-522CA87673CE}"/>
-    <hyperlink ref="G23" r:id="rId5" xr:uid="{40F13DF4-1C93-45D3-8F5C-D1974FC46F47}"/>
-    <hyperlink ref="G24" r:id="rId6" xr:uid="{32EDDF57-E372-4B0F-81D0-F8B2A855BEB7}"/>
-    <hyperlink ref="G25" r:id="rId7" xr:uid="{00D740B3-63F4-44D4-8EB3-59EBA79E0AB3}"/>
-    <hyperlink ref="G26" r:id="rId8" xr:uid="{D661597F-ECAC-4799-97FB-9E5E779391ED}"/>
-    <hyperlink ref="G27" r:id="rId9" xr:uid="{C8357A27-4FF7-4525-8C27-300AE37A918B}"/>
-    <hyperlink ref="G28" r:id="rId10" xr:uid="{DE376315-2A29-4E38-93E9-2726263CE29A}"/>
-    <hyperlink ref="G2" r:id="rId11" location="page=12" display="https://unfccc.int/resource/docs/2010/cop16/eng/07a01.pdf - page=12" xr:uid="{31596F7C-DECF-4668-B6F0-E72B52D24FD4}"/>
-    <hyperlink ref="G3:G8" r:id="rId12" location="page=12" display="https://unfccc.int/resource/docs/2010/cop16/eng/07a01.pdf - page=12" xr:uid="{0DA4FBE0-A923-47F0-B1D0-F54C7225EB06}"/>
-    <hyperlink ref="G9" r:id="rId13" xr:uid="{A8DF2DC2-72FA-4B51-AC32-BE0E7DB5559E}"/>
-    <hyperlink ref="G10:G18" r:id="rId14" display="http://pubdocs.worldbank.org/en/345101522946582343/Environmental-Social-Framework-Spanish.pdf" xr:uid="{3D41AF97-4FC9-4C73-99D4-85C5E5D013C2}"/>
-    <hyperlink ref="G33" r:id="rId15" location="gcf039s-response" display="https://www.greenclimate.fund/projects/gender - gcf039s-response" xr:uid="{E37677BC-480E-4A33-9923-E922E57CF0D2}"/>
-    <hyperlink ref="G34" r:id="rId16" xr:uid="{19A68E4D-066A-4009-B54E-2D668D70443C}"/>
-    <hyperlink ref="G35:G42" r:id="rId17" display="https://www.thegef.org/sites/default/files/documents/gef_environmental_social_safeguards_policy.pdf" xr:uid="{B3B28840-2219-498F-967B-0F1D2C9CE19F}"/>
-    <hyperlink ref="G43" r:id="rId18" xr:uid="{9D4AE93E-EA64-4C2A-8CE8-1E5DBC196C82}"/>
-    <hyperlink ref="G44:G51" r:id="rId19" display="https://www.caf.com/media/30035/salvaguardas-ambientales-y-sociales.pdf" xr:uid="{739F95C3-D57B-4AFF-ACF9-DBACAADCD71D}"/>
+    <hyperlink ref="G20" r:id="rId1" xr:uid="{D09B3563-CC16-4A95-93F2-5124FCEDC3BA}"/>
+    <hyperlink ref="G21" r:id="rId2" xr:uid="{E1BB0D9E-56BE-4DBC-8FE8-5B90E001A9DC}"/>
+    <hyperlink ref="G22" r:id="rId3" xr:uid="{1555A391-924B-4B0A-A94A-522CA87673CE}"/>
+    <hyperlink ref="G23" r:id="rId4" xr:uid="{40F13DF4-1C93-45D3-8F5C-D1974FC46F47}"/>
+    <hyperlink ref="G24" r:id="rId5" xr:uid="{32EDDF57-E372-4B0F-81D0-F8B2A855BEB7}"/>
+    <hyperlink ref="G25" r:id="rId6" xr:uid="{00D740B3-63F4-44D4-8EB3-59EBA79E0AB3}"/>
+    <hyperlink ref="G26" r:id="rId7" xr:uid="{D661597F-ECAC-4799-97FB-9E5E779391ED}"/>
+    <hyperlink ref="G27" r:id="rId8" xr:uid="{C8357A27-4FF7-4525-8C27-300AE37A918B}"/>
+    <hyperlink ref="G28" r:id="rId9" xr:uid="{DE376315-2A29-4E38-93E9-2726263CE29A}"/>
+    <hyperlink ref="G3:G8" r:id="rId10" location="page=12" display="https://unfccc.int/resource/docs/2010/cop16/eng/07a01.pdf - page=12" xr:uid="{0DA4FBE0-A923-47F0-B1D0-F54C7225EB06}"/>
+    <hyperlink ref="G10:G18" r:id="rId11" display="http://pubdocs.worldbank.org/en/345101522946582343/Environmental-Social-Framework-Spanish.pdf" xr:uid="{3D41AF97-4FC9-4C73-99D4-85C5E5D013C2}"/>
+    <hyperlink ref="G33" r:id="rId12" location="gcf039s-response" display="https://www.greenclimate.fund/projects/gender - gcf039s-response" xr:uid="{E37677BC-480E-4A33-9923-E922E57CF0D2}"/>
+    <hyperlink ref="G34" r:id="rId13" xr:uid="{19A68E4D-066A-4009-B54E-2D668D70443C}"/>
+    <hyperlink ref="G35:G42" r:id="rId14" display="https://www.thegef.org/sites/default/files/documents/gef_environmental_social_safeguards_policy.pdf" xr:uid="{B3B28840-2219-498F-967B-0F1D2C9CE19F}"/>
+    <hyperlink ref="G43" r:id="rId15" xr:uid="{9D4AE93E-EA64-4C2A-8CE8-1E5DBC196C82}"/>
+    <hyperlink ref="G44:G51" r:id="rId16" display="https://www.caf.com/media/30035/salvaguardas-ambientales-y-sociales.pdf" xr:uid="{739F95C3-D57B-4AFF-ACF9-DBACAADCD71D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId20"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2319,36 +2322,36 @@
     <row r="1" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D2" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="4:10" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D3" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>4</v>
@@ -2360,15 +2363,15 @@
         <v>5</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D4" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>18</v>
@@ -2383,18 +2386,18 @@
         <v>20</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D5" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>39</v>
@@ -2406,110 +2409,110 @@
         <v>20</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D7" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D8" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="J8" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D9" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="J9" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -2521,15 +2524,15 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D11" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -2544,18 +2547,18 @@
         <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D12" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -2567,61 +2570,61 @@
         <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
         <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H14" t="s">
         <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -2636,18 +2639,18 @@
         <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D16" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -2659,64 +2662,64 @@
         <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D17" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D18" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
         <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D19" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -2728,18 +2731,18 @@
         <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D20" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
@@ -2751,7 +2754,7 @@
         <v>17</v>
       </c>
       <c r="J20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/base de datos SIS.xlsx
+++ b/base de datos SIS.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-SIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-SIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD495FA-25A3-45D6-8F10-F49A93791E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2738CAFF-1A12-4361-A87A-0282CA1794F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="1368" windowWidth="19392" windowHeight="10992" activeTab="1" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contexto " sheetId="1" r:id="rId1"/>
     <sheet name="Salvaguardas " sheetId="2" r:id="rId2"/>
     <sheet name="checklist" sheetId="3" r:id="rId3"/>
+    <sheet name="Indicadores" sheetId="4" r:id="rId4"/>
+    <sheet name="Ej. Política" sheetId="5" r:id="rId5"/>
+    <sheet name="Ej. Programa" sheetId="6" r:id="rId6"/>
+    <sheet name="Ej. Proyecto" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="188">
   <si>
     <t xml:space="preserve">Organismo </t>
   </si>
@@ -457,9 +461,6 @@
     <t>Quejas</t>
   </si>
   <si>
-    <t xml:space="preserve">Patrimonio </t>
-  </si>
-  <si>
     <t>Uso Recursos Naturales</t>
   </si>
   <si>
@@ -512,13 +513,104 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-SIS/master/Doc%C2%B4s/EnvironmentalSocialFrameworkSpanish.pdf</t>
+  </si>
+  <si>
+    <t>¿Las inicitivas consideran la intermedirarios financieros?</t>
+  </si>
+  <si>
+    <t>¿Las inicitivas integra la perspectiva de género?</t>
+  </si>
+  <si>
+    <t>¿Las inicitivas busca la transparencia y eficacia gubernamental?</t>
+  </si>
+  <si>
+    <t>¿La iniciativa cumple con los estándares de participación de las partes interesada?</t>
+  </si>
+  <si>
+    <t>¿En el área de implementación de la iniciativa, se identifican objetos o lugares patromoniales?</t>
+  </si>
+  <si>
+    <t>¿En las iniciativas se encuentran poblaciones indígenas?</t>
+  </si>
+  <si>
+    <t>¿Las iniciativas cuentan con un mecanismo de atención a quejas y resolución de conflictos?</t>
+  </si>
+  <si>
+    <t>¿Las inicitivas contemplan reubicación de personas y/o desplazmiento de actividades económicas?</t>
+  </si>
+  <si>
+    <t>¿Las iniciativas integran medidas de salud y seguridad para la comunidad?</t>
+  </si>
+  <si>
+    <t>¿Las iniciativas involucran condiciones laborales para trabajadores?</t>
+  </si>
+  <si>
+    <t>¿Las inicitivas contemplan el uso de los recursos naturales renovables?</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>¿Se activa? 
+SI/NO</t>
+  </si>
+  <si>
+    <t>¿Qué son iniciativas?</t>
+  </si>
+  <si>
+    <t>Se entiende como aquellas políticas, programas o proyectos a las que se aplica las salvaguardas sociales y ambientales?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicador </t>
+  </si>
+  <si>
+    <t>Propuesta cuantitava de las salvaguardas</t>
+  </si>
+  <si>
+    <t>Contaminación</t>
+  </si>
+  <si>
+    <t>Patrimonio cultural</t>
+  </si>
+  <si>
+    <t>Reasentamiento involuntario</t>
+  </si>
+  <si>
+    <t>Recursos Naturales</t>
+  </si>
+  <si>
+    <t>Formulación</t>
+  </si>
+  <si>
+    <t>Implementación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación </t>
+  </si>
+  <si>
+    <t>Fases para el uso del indicador</t>
+  </si>
+  <si>
+    <t>Número de proyectos con objetivos  complementarios o compatibles  con los convenios o acuerdos internacionales</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>La información del proyecto y sobretodo de sus  impactos son comunicados de manera abierta y transparente a la comunidad</t>
+  </si>
+  <si>
+    <t>Acciones y/o procedimientos para resolver conflictosrelacionados con la ejecuión del proyecto.</t>
+  </si>
+  <si>
+    <t>Medidas especiales para garantizar la participación de las mujeres.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,8 +640,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,12 +657,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -596,15 +700,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -617,9 +741,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -632,20 +754,19 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -661,35 +782,119 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -713,6 +918,23 @@
     <tableColumn id="5" xr3:uid="{25068A3A-87A9-4801-82B7-095803F79879}" name="Descripción"/>
     <tableColumn id="6" xr3:uid="{78B6C99E-C11C-45A1-8A81-B30B7172A75B}" name="Tipos/categorias "/>
     <tableColumn id="7" xr3:uid="{F88B68CC-82E4-4C63-A626-B1C3313010B1}" name="Link" dataCellStyle="Hipervínculo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CC2BDCA-09AF-4342-9F5B-9A07D9BE177D}" name="Tabla2" displayName="Tabla2" ref="D2:K52" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" headerRowCellStyle="Bueno">
+  <autoFilter ref="D2:K52" xr:uid="{F5A88EF2-69C2-4C79-9EEF-14B685474BEA}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7C9F4368-6883-44F7-8402-B8287EFF6627}" name="Pregunta Guía" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{2656D9C9-BC4C-4A6D-B391-E9BFF9AAE3F1}" name="¿Se activa? _x000a_SI/NO" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D2C42CEC-3B1B-4C53-86AC-EE6342A766C5}" name="Organismo " dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2C41A55E-DAE5-416E-899B-EE543A9408C0}" name="Nombre oficial" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{120D6F14-33A8-45CA-8D3B-36F479269279}" name="Salvaguardas" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{949BA37A-A684-4896-B321-7ED1BAD49713}" name="Nombre de SSA" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{63E03E4A-5DC2-49C4-B7C8-5071A8829AEB}" name="Descripción" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{E33EB9B7-18E9-41C9-9FE8-6E7FAE1C6168}" name="Categoría" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1015,19 +1237,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D80F70B-5660-42CC-BAE5-7EC7AFB4AF20}">
-  <dimension ref="A3:B8"/>
+  <dimension ref="A3:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>110</v>
       </c>
@@ -1035,7 +1257,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>114</v>
       </c>
@@ -1043,7 +1265,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>111</v>
       </c>
@@ -1051,7 +1273,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>112</v>
       </c>
@@ -1059,7 +1281,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>119</v>
       </c>
@@ -1067,12 +1289,20 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1085,21 +1315,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3490360-E7D4-453F-809F-BDE17EBE6214}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="6" width="39.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1122,12 +1352,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1142,15 +1372,15 @@
         <v>123</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1168,12 +1398,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1191,12 +1421,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1214,12 +1444,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1237,12 +1467,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1260,12 +1490,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1283,7 +1513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -1303,10 +1533,10 @@
         <v>128</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -1329,7 +1559,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -1352,7 +1582,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -1375,7 +1605,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -1398,7 +1628,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -1421,7 +1651,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -1444,7 +1674,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -1467,7 +1697,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -1490,7 +1720,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -1513,7 +1743,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1533,10 +1763,10 @@
         <v>128</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1559,7 +1789,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1582,7 +1812,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1605,7 +1835,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1628,7 +1858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1651,7 +1881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1674,7 +1904,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1697,7 +1927,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1720,7 +1950,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1743,12 +1973,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
         <v>71</v>
@@ -1766,12 +1996,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
         <v>71</v>
@@ -1789,12 +2019,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
         <v>71</v>
@@ -1812,12 +2042,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
         <v>71</v>
@@ -1835,12 +2065,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
         <v>71</v>
@@ -1858,12 +2088,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
         <v>75</v>
@@ -1881,12 +2111,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" t="s">
         <v>78</v>
@@ -1904,12 +2134,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
         <v>79</v>
@@ -1927,12 +2157,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s">
         <v>80</v>
@@ -1950,12 +2180,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
         <v>81</v>
@@ -1973,12 +2203,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
         <v>86</v>
@@ -1996,12 +2226,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
         <v>87</v>
@@ -2019,12 +2249,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
         <v>88</v>
@@ -2042,12 +2272,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
         <v>89</v>
@@ -2065,12 +2295,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
         <v>92</v>
@@ -2088,12 +2318,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
         <v>94</v>
@@ -2105,18 +2335,18 @@
         <v>95</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
         <v>102</v>
@@ -2134,12 +2364,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
         <v>103</v>
@@ -2157,12 +2387,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
         <v>104</v>
@@ -2174,18 +2404,18 @@
         <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
         <v>105</v>
@@ -2203,12 +2433,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
         <v>106</v>
@@ -2226,12 +2456,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
         <v>107</v>
@@ -2249,12 +2479,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
         <v>108</v>
@@ -2302,462 +2532,1612 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C09263-7AD8-4021-A12C-A81048351FF7}">
-  <dimension ref="D1:J20"/>
+  <dimension ref="D2:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="28.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="45.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="4" max="5" width="28.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="45.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="11" t="s">
+    <row r="2" spans="4:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="4:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="D3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="E3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="D29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="D30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="D31" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="D32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D33" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D34" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D35" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D36" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D37" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D38" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D39" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D40" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D41" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D42" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D43" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D45" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D46" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D47" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D48" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D49" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D50" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D51" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D52" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECE086B-9F3E-487F-BAEE-7B82EEFBF5D3}">
+  <dimension ref="D3:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="28.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="69" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="4:10" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D3" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="E6" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="21" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D4" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D5" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D6" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D7" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D8" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D9" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D10" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D11" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D12" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D13" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D14" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D15" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D16" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D17" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D18" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D19" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D20" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" t="s">
-        <v>127</v>
-      </c>
+      <c r="E14" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D20B71-BF90-4875-8CAD-D2F1A618EC38}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CDBC77-9F0A-4E52-AA14-20767D1B43BA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06DC257-BE19-4EDC-A021-CF4501C5F187}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/base de datos SIS.xlsx
+++ b/base de datos SIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-SIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2738CAFF-1A12-4361-A87A-0282CA1794F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0C68A6-2DE1-4907-A9F1-3C8919C15B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{797B6A3C-6EAD-4C6B-B76D-DEA2D4E53CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contexto " sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="222">
   <si>
     <t xml:space="preserve">Organismo </t>
   </si>
@@ -604,6 +604,109 @@
   </si>
   <si>
     <t>Medidas especiales para garantizar la participación de las mujeres.</t>
+  </si>
+  <si>
+    <t>Medidas para identificar la diversidad biológica en el proyecto incluyendo especies en categoría de conservación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción de medidas para Protección y Conservación de Bosques naturales y Biodiversidad, en el área del proyecto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificación de Índice de riesgo del uso de productos fitosanitarios para ecosistemas terrestres y acuáticos, según establece la legislación nacional e internacional adscrita por el país. </t>
+  </si>
+  <si>
+    <t>El proyecto posee alguna bonificación o apoyo financiero externo</t>
+  </si>
+  <si>
+    <t>Evaluación e identificación de las medidas de mitigación para reducir los riesgos de reversión</t>
+  </si>
+  <si>
+    <t>Consideración de medidas para evitar las actividades ilegales de cosecha o robo de madera.</t>
+  </si>
+  <si>
+    <t>Actividades de prevención de incendios forestales</t>
+  </si>
+  <si>
+    <t>Evaluación e identificación de las medidas de mitigación para reducir los riesgos de desplazamiento de emisiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consideración de medidas para evitar las actividades ilegales de cosecha o robo de madera se realicen en el área de monitoreo de desplazamiento de emisiones </t>
+  </si>
+  <si>
+    <t>Considerar e identificar áreas de prioridad de protección y conservación para especies de flora y fauna que se encuentran en algún estado de vulnerabilidad</t>
+  </si>
+  <si>
+    <t>Número de asistentes, hombres y mujeres, a las diferentes convocatorias participativas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medidas especiales para garantizar la participación de los actores relevantes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguimiento a las incorformidades en el proceso de participación </t>
+  </si>
+  <si>
+    <t>Determinar medidas específicas para garantizar el respeto de los derechos de los pueblos indígenas</t>
+  </si>
+  <si>
+    <t>Número de asistentes de comunidades locales y/o pueblos indígenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asegurar el Consentimiento Libre, Previo e Informado (CLPI) de las comunidades afectadas de los pueblos indígenas </t>
+  </si>
+  <si>
+    <t>Los programas, políticas y proyectos han identificado sitios ceremoniales y patrimoniales en el lugar de implementación</t>
+  </si>
+  <si>
+    <t>Los programas, políticas y proyectos han realizado la evaluación de riesgo en la fase de formulación</t>
+  </si>
+  <si>
+    <t>Los programas, políticas y proyectos cuenta con una Evaluación Estrategica Ambiental y Social</t>
+  </si>
+  <si>
+    <t>Los programas, políticas y proyectos cuenta con un Marco de Gestión Ambiental y Social</t>
+  </si>
+  <si>
+    <t>Los programas, políticas y proyectos implementan las medidas de mitigación o reducción de riesgos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los programas, políticas y proyectos evaluan las medidas de mitigación implementadas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los programas, políticas y proyectos evaluan las lecciones aprendidas y sus resultados de la implementación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de proyectos en que los propietarios cuentan con  los derechos legales de la superficie del proyecto. 
+</t>
+  </si>
+  <si>
+    <t>Descripción de la situación legal de la finca: N° de título de dominio formalizados en el contexto del programa.</t>
+  </si>
+  <si>
+    <t>N° de personas reasentadas</t>
+  </si>
+  <si>
+    <t>N° de personas compensadas</t>
+  </si>
+  <si>
+    <t>Se cumple con las condiciones de salud de los actores involucrados</t>
+  </si>
+  <si>
+    <t>Se realizan controles sanitarios durante la implementación de la política, programa o proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° de personas que cuentan con las condiciones laborales nacionales e internacionales </t>
+  </si>
+  <si>
+    <t>Descripción de tipo de bosque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción de las medidas específicas para la protección de especies en peligro de extinción u otra categoría de conservación </t>
+  </si>
+  <si>
+    <t>Descripción de las medidas específicas para la protección de especies de árboles (madera) en peligro de extinción o aquellas con valor cultural /tradicional (social/económico)</t>
+  </si>
+  <si>
+    <t>Actividades que consideren la recuperación de bosques degradados y/o afectados por plagas: utilización de plantas de especies nativas de material vegetativo de la zona, protección de áreas de regeneración  del daño físico y ramoneo animal, entre otras.</t>
   </si>
 </sst>
 </file>
@@ -766,7 +869,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -821,9 +924,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -833,6 +933,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -840,22 +945,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -882,16 +971,32 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="medium">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -924,17 +1029,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CC2BDCA-09AF-4342-9F5B-9A07D9BE177D}" name="Tabla2" displayName="Tabla2" ref="D2:K52" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" headerRowCellStyle="Bueno">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4CC2BDCA-09AF-4342-9F5B-9A07D9BE177D}" name="Tabla2" displayName="Tabla2" ref="D2:K52" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" headerRowCellStyle="Bueno">
   <autoFilter ref="D2:K52" xr:uid="{F5A88EF2-69C2-4C79-9EEF-14B685474BEA}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7C9F4368-6883-44F7-8402-B8287EFF6627}" name="Pregunta Guía" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{2656D9C9-BC4C-4A6D-B391-E9BFF9AAE3F1}" name="¿Se activa? _x000a_SI/NO" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D2C42CEC-3B1B-4C53-86AC-EE6342A766C5}" name="Organismo " dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{2C41A55E-DAE5-416E-899B-EE543A9408C0}" name="Nombre oficial" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{120D6F14-33A8-45CA-8D3B-36F479269279}" name="Salvaguardas" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{949BA37A-A684-4896-B321-7ED1BAD49713}" name="Nombre de SSA" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{63E03E4A-5DC2-49C4-B7C8-5071A8829AEB}" name="Descripción" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{E33EB9B7-18E9-41C9-9FE8-6E7FAE1C6168}" name="Categoría" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7C9F4368-6883-44F7-8402-B8287EFF6627}" name="Pregunta Guía" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{2656D9C9-BC4C-4A6D-B391-E9BFF9AAE3F1}" name="¿Se activa? _x000a_SI/NO" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{D2C42CEC-3B1B-4C53-86AC-EE6342A766C5}" name="Organismo " dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{2C41A55E-DAE5-416E-899B-EE543A9408C0}" name="Nombre oficial" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{120D6F14-33A8-45CA-8D3B-36F479269279}" name="Salvaguardas" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{949BA37A-A684-4896-B321-7ED1BAD49713}" name="Nombre de SSA" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{63E03E4A-5DC2-49C4-B7C8-5071A8829AEB}" name="Descripción" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{E33EB9B7-18E9-41C9-9FE8-6E7FAE1C6168}" name="Categoría" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2534,7 +2639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C09263-7AD8-4021-A12C-A81048351FF7}">
   <dimension ref="D2:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -3885,10 +3990,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECE086B-9F3E-487F-BAEE-7B82EEFBF5D3}">
-  <dimension ref="D3:H22"/>
+  <dimension ref="D3:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3906,19 +4011,19 @@
       </c>
     </row>
     <row r="5" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>173</v>
       </c>
       <c r="F6" s="19" t="s">
@@ -3931,57 +4036,79 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="21" t="s">
+    <row r="7" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="E7" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="21"/>
+    <row r="8" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D8" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>197</v>
+      </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+    <row r="9" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="18"/>
+    <row r="10" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D10" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="18"/>
+    <row r="11" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>187</v>
+    <row r="12" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>184</v>
@@ -3991,12 +4118,12 @@
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D13" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>185</v>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>184</v>
@@ -4007,11 +4134,11 @@
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D14" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>183</v>
+      <c r="D14" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>184</v>
@@ -4019,81 +4146,419 @@
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+    <row r="15" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D15" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="18"/>
+    <row r="16" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="18"/>
+    <row r="17" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D18" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18" t="s">
-        <v>184</v>
-      </c>
+      <c r="D18" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="18"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="21"/>
+    <row r="19" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>208</v>
+      </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="21"/>
+    <row r="20" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D20" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="21"/>
+      <c r="H20" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>210</v>
+      </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="21" t="s">
+      <c r="H21" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D24" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D26" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D27" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D31" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D32" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D33" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D34" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D35" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D39" s="20"/>
+      <c r="E39" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D40" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="E41" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D42" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D43" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="4:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D44" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H44" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
